--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_14_4.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_14_4.xlsx
@@ -518,1376 +518,1376 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_14_4_6</t>
+          <t>model_14_4_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9997027697516063</v>
+        <v>0.9999928993801011</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9990928969903339</v>
+        <v>0.9990459637411684</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9975126814196805</v>
+        <v>0.999996159818636</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9997159550271809</v>
+        <v>0.9999626462665525</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9996679495811206</v>
+        <v>0.9999773902487262</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0002774513899754447</v>
+        <v>6.628116994473647e-06</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0008467408423030134</v>
+        <v>0.0008905509702675323</v>
       </c>
       <c r="I2" t="n">
-        <v>8.325707628964617e-05</v>
+        <v>2.669076946867108e-06</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0002943459428033715</v>
+        <v>3.667970597744976e-05</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0001888015095465088</v>
+        <v>1.967439146215844e-05</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001238769298222121</v>
+        <v>0.0001956755630716215</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01665687215462269</v>
+        <v>0.002574512962576349</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000792613995716</v>
+        <v>1.000018934986397</v>
       </c>
       <c r="O2" t="n">
-        <v>0.01736598968672377</v>
+        <v>0.002684115309369755</v>
       </c>
       <c r="P2" t="n">
-        <v>82.37972962276345</v>
+        <v>89.84837961401141</v>
       </c>
       <c r="Q2" t="n">
-        <v>122.6026318434141</v>
+        <v>130.071281834662</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_14_4_7</t>
+          <t>model_14_4_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.99974312018484</v>
+        <v>0.9999925440379648</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9990925494151676</v>
+        <v>0.9990377513663707</v>
       </c>
       <c r="D3" t="n">
-        <v>0.997301217242057</v>
+        <v>0.9999954531773423</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9997148140094504</v>
+        <v>0.9999602927460517</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9996606854579423</v>
+        <v>0.9999757801111396</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0002397860317311875</v>
+        <v>6.959813280919679e-06</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0008470652884640054</v>
+        <v>0.000898216861659532</v>
       </c>
       <c r="I3" t="n">
-        <v>9.033533691465398e-05</v>
+        <v>3.160220413275047e-06</v>
       </c>
       <c r="J3" t="n">
-        <v>0.000295528339859441</v>
+        <v>3.89907585018193e-05</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0001929318383870475</v>
+        <v>2.107548945754718e-05</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001196009610728411</v>
+        <v>0.0001969847081689721</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0154850260487733</v>
+        <v>0.002638145803574867</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000685012840427</v>
+        <v>1.000019882565427</v>
       </c>
       <c r="O3" t="n">
-        <v>0.01614425566609252</v>
+        <v>0.00275045713214772</v>
       </c>
       <c r="P3" t="n">
-        <v>82.67152713345774</v>
+        <v>89.75071582286375</v>
       </c>
       <c r="Q3" t="n">
-        <v>122.8944293541084</v>
+        <v>129.9736180435144</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_14_4_8</t>
+          <t>model_14_4_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9997753667877963</v>
+        <v>0.9999923470955295</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9990867051173868</v>
+        <v>0.9990342099329685</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9969970482817903</v>
+        <v>0.9999951109748444</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9997130765070206</v>
+        <v>0.9999591035431707</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9996501490562912</v>
+        <v>0.9999749724620774</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0002096852433337298</v>
+        <v>7.143650399522938e-06</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0008525206839072704</v>
+        <v>0.0009015226342895294</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0001005166697484306</v>
+        <v>3.398064596002174e-06</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0002973288532983572</v>
+        <v>4.015850287430213e-05</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0001989227615233939</v>
+        <v>2.177828373515215e-05</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001154761675329415</v>
+        <v>0.0001976311299752381</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01448051253698327</v>
+        <v>0.002672760819737325</v>
       </c>
       <c r="N4" t="n">
-        <v>1.00059902189921</v>
+        <v>1.000020407745255</v>
       </c>
       <c r="O4" t="n">
-        <v>0.01509697793447596</v>
+        <v>0.002786545781211176</v>
       </c>
       <c r="P4" t="n">
-        <v>82.93980598580198</v>
+        <v>89.69857330364897</v>
       </c>
       <c r="Q4" t="n">
-        <v>123.1627082064526</v>
+        <v>129.9214755242996</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_14_4_5</t>
+          <t>model_14_4_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9996525468926275</v>
+        <v>0.9999921489376596</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9990864148658614</v>
+        <v>0.9990310120328615</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9976121940248194</v>
+        <v>0.9999947859354247</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9997169157801886</v>
+        <v>0.999957936103881</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9996717541862166</v>
+        <v>0.9999741839470836</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0003243322243034444</v>
+        <v>7.328622072874252e-06</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0008527916209658225</v>
+        <v>0.0009045077336678906</v>
       </c>
       <c r="I5" t="n">
-        <v>7.992612840730083e-05</v>
+        <v>3.623979765034186e-06</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0002933503478205104</v>
+        <v>4.130487636741037e-05</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0001866382381139056</v>
+        <v>2.246442806622228e-05</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001282275083028915</v>
+        <v>0.0001982125201762519</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01800922608840936</v>
+        <v>0.00270714278767749</v>
       </c>
       <c r="N5" t="n">
-        <v>1.00092654161966</v>
+        <v>1.000020936166241</v>
       </c>
       <c r="O5" t="n">
-        <v>0.01877591612723031</v>
+        <v>0.002822391460707039</v>
       </c>
       <c r="P5" t="n">
-        <v>82.06748436773213</v>
+        <v>89.64744608867618</v>
       </c>
       <c r="Q5" t="n">
-        <v>122.2903865883828</v>
+        <v>129.8703483093268</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_14_4_9</t>
+          <t>model_14_4_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9998013573210236</v>
+        <v>0.9999919536135318</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9990777845663075</v>
+        <v>0.9990281307298502</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9966617620211891</v>
+        <v>0.9999944763881231</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9997110831268281</v>
+        <v>0.9999568227070834</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9996384635593025</v>
+        <v>0.9999734321115591</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0001854242214185851</v>
+        <v>7.510948572517203e-06</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0008608476267729561</v>
+        <v>0.0009071973035543329</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0001117395802346933</v>
+        <v>3.839127303262141e-06</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0002993945239782234</v>
+        <v>4.239818253524169e-05</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0002055670521064583</v>
+        <v>2.311865491925192e-05</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001113130525948977</v>
+        <v>0.0001988016790077539</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01361705626846658</v>
+        <v>0.002740610985258069</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000529713810604</v>
+        <v>1.000021457030582</v>
       </c>
       <c r="O6" t="n">
-        <v>0.01419676254500763</v>
+        <v>0.002857284468747343</v>
       </c>
       <c r="P6" t="n">
-        <v>83.18572853850506</v>
+        <v>89.59829758447869</v>
       </c>
       <c r="Q6" t="n">
-        <v>123.4086307591557</v>
+        <v>129.8211998051293</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_14_4_4</t>
+          <t>model_14_4_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9995891700834266</v>
+        <v>0.999991764714625</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9990695342383212</v>
+        <v>0.9990255250282424</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9975008412350499</v>
+        <v>0.9999941882287492</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9997163741860293</v>
+        <v>0.9999557654812635</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9996679830301212</v>
+        <v>0.9999727205110607</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0003834916937720762</v>
+        <v>7.687277410330902e-06</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0008685489458006097</v>
+        <v>0.0009096296116280752</v>
       </c>
       <c r="I7" t="n">
-        <v>8.365339832208218e-05</v>
+        <v>4.039409391211215e-06</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0002939115830427538</v>
+        <v>4.343633129969594e-05</v>
       </c>
       <c r="K7" t="n">
-        <v>0.000188782490682418</v>
+        <v>2.373787034545357e-05</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001330083893058519</v>
+        <v>0.0001993380439317998</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01958294395059323</v>
+        <v>0.002772593985842663</v>
       </c>
       <c r="N7" t="n">
-        <v>1.001095546444196</v>
+        <v>1.000021960761</v>
       </c>
       <c r="O7" t="n">
-        <v>0.02041663041685243</v>
+        <v>0.002890629051880761</v>
       </c>
       <c r="P7" t="n">
-        <v>81.73238519279047</v>
+        <v>89.55188776000908</v>
       </c>
       <c r="Q7" t="n">
-        <v>121.9552874134411</v>
+        <v>129.7747899806597</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_14_4_10</t>
+          <t>model_14_4_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9998223682889337</v>
+        <v>0.9999915818720043</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9990672441515751</v>
+        <v>0.9990231784084106</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9963286849580102</v>
+        <v>0.9999939185549546</v>
       </c>
       <c r="E8" t="n">
-        <v>0.999708952281894</v>
+        <v>0.9999547591833227</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9996267178238661</v>
+        <v>0.9999720450281671</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0001658114051494379</v>
+        <v>7.857952970821665e-06</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0008706866412549286</v>
+        <v>0.0009118200782364024</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0001228885430892414</v>
+        <v>4.22684327526094e-06</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0003016026445968595</v>
+        <v>4.442447115053685e-05</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0002122455938430505</v>
+        <v>2.43256572128989e-05</v>
       </c>
       <c r="L8" t="n">
-        <v>0.001071759381316375</v>
+        <v>0.000199820465621456</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01287677774714769</v>
+        <v>0.002803204054438718</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000473684562843</v>
+        <v>1.000022448341322</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0134249688344484</v>
+        <v>0.002922542254468528</v>
       </c>
       <c r="P8" t="n">
-        <v>83.40931905806315</v>
+        <v>89.50796884344962</v>
       </c>
       <c r="Q8" t="n">
-        <v>123.6322212787138</v>
+        <v>129.7308710641002</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_14_4_11</t>
+          <t>model_14_4_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9998392614231849</v>
+        <v>0.9999914096363848</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9990556468971131</v>
+        <v>0.9990210550640853</v>
       </c>
       <c r="D9" t="n">
-        <v>0.996003731897506</v>
+        <v>0.9999936680859249</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9997066395882812</v>
+        <v>0.9999538233943045</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9996150455049329</v>
+        <v>0.9999714169983143</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0001500424058488527</v>
+        <v>8.018727361431822e-06</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0008815121692345171</v>
+        <v>0.0009138021269599698</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0001337655742677229</v>
+        <v>4.400929092953892e-06</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0003039992086871477</v>
+        <v>4.534337437322293e-05</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0002188823914774353</v>
+        <v>2.487215173308841e-05</v>
       </c>
       <c r="L9" t="n">
-        <v>0.00103156291171369</v>
+        <v>0.0002002758963092417</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01224917980310734</v>
+        <v>0.002831735750636316</v>
       </c>
       <c r="N9" t="n">
-        <v>1.00042863620484</v>
+        <v>1.000022907636307</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0127706527466234</v>
+        <v>0.002952288604042012</v>
       </c>
       <c r="P9" t="n">
-        <v>83.60918519632543</v>
+        <v>89.46746166358118</v>
       </c>
       <c r="Q9" t="n">
-        <v>123.8320874169761</v>
+        <v>129.6903638842318</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_14_4_12</t>
+          <t>model_14_4_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9998528777919933</v>
+        <v>0.9999912478460941</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9990436891060519</v>
+        <v>0.9990191492646415</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9957014323862321</v>
+        <v>0.9999934369852208</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9997043401180331</v>
+        <v>0.999952949587459</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9996040520342788</v>
+        <v>0.9999708316757735</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0001373321232556757</v>
+        <v>8.169751496051358e-06</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0008926742423038037</v>
+        <v>0.0009155811070858393</v>
       </c>
       <c r="I10" t="n">
-        <v>0.000143884331740772</v>
+        <v>4.561553163363118e-06</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0003063820698636893</v>
+        <v>4.620141385721994e-05</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0002251332008022307</v>
+        <v>2.538148351029153e-05</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0009926797414701815</v>
+        <v>0.0002006691504556782</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01171887892486631</v>
+        <v>0.002858277714997505</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000392325888018</v>
+        <v>1.000023339077083</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0122177758621215</v>
+        <v>0.002979960514775497</v>
       </c>
       <c r="P10" t="n">
-        <v>83.78621661713352</v>
+        <v>89.43014413238987</v>
       </c>
       <c r="Q10" t="n">
-        <v>124.0091188377841</v>
+        <v>129.6530463530405</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_14_4_3</t>
+          <t>model_14_4_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9995089804357628</v>
+        <v>0.99999109312232</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9990381889166422</v>
+        <v>0.9990174279802392</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9971009787234466</v>
+        <v>0.9999932208797073</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9997133185822791</v>
+        <v>0.9999521281315851</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9996534288006069</v>
+        <v>0.9999702818798379</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0004583452099476385</v>
+        <v>8.314179347528394e-06</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0008978084276873256</v>
+        <v>0.0009171878505197884</v>
       </c>
       <c r="I11" t="n">
-        <v>9.703784529133518e-05</v>
+        <v>4.711754987040446e-06</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0002970779991132333</v>
+        <v>4.700804701403601e-05</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0001970579222022843</v>
+        <v>2.585990100053823e-05</v>
       </c>
       <c r="L11" t="n">
-        <v>0.001382645327244321</v>
+        <v>0.0002010262683989242</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02140899834059591</v>
+        <v>0.002883431869756661</v>
       </c>
       <c r="N11" t="n">
-        <v>1.001309385504633</v>
+        <v>1.000023751673813</v>
       </c>
       <c r="O11" t="n">
-        <v>0.02232042372269121</v>
+        <v>0.003006185533979029</v>
       </c>
       <c r="P11" t="n">
-        <v>81.37577584850882</v>
+        <v>89.39509629123326</v>
       </c>
       <c r="Q11" t="n">
-        <v>121.5986780691594</v>
+        <v>129.6179985118839</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_14_4_13</t>
+          <t>model_14_4_10</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9998639406235302</v>
+        <v>0.9999909509853381</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9990319467379222</v>
+        <v>0.9990158619022034</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9954348776550307</v>
+        <v>0.9999930205843006</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9997023992024623</v>
+        <v>0.9999513769492767</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9995944374317983</v>
+        <v>0.999969778048428</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0001270054556181643</v>
+        <v>8.4468579810284e-06</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0009036352275225278</v>
+        <v>0.000918649715623304</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0001528066176781637</v>
+        <v>4.850968165236749e-06</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0003083933732778103</v>
+        <v>4.774567465291329e-05</v>
       </c>
       <c r="K12" t="n">
-        <v>0.000230599995477987</v>
+        <v>2.629832140907502e-05</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0009645726741564331</v>
+        <v>0.0002013637916280623</v>
       </c>
       <c r="M12" t="n">
-        <v>0.01126966972089973</v>
+        <v>0.00290634787680835</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000362825003919</v>
+        <v>1.000024130705765</v>
       </c>
       <c r="O12" t="n">
-        <v>0.01174944289235083</v>
+        <v>0.003030077122893582</v>
       </c>
       <c r="P12" t="n">
-        <v>83.94256102960999</v>
+        <v>89.36343204461647</v>
       </c>
       <c r="Q12" t="n">
-        <v>124.1654632502606</v>
+        <v>129.5863342652671</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_14_4_14</t>
+          <t>model_14_4_11</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9998728385818556</v>
+        <v>0.9999908180369974</v>
       </c>
       <c r="C13" t="n">
-        <v>0.999020470827291</v>
+        <v>0.9990144536059549</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9951939911243131</v>
+        <v>0.9999928387580037</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9997006550959548</v>
+        <v>0.9999506787170834</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9995857577059176</v>
+        <v>0.9999693114690522</v>
       </c>
       <c r="G13" t="n">
-        <v>0.000118699602096688</v>
+        <v>8.570959421306315e-06</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0009143474863625298</v>
+        <v>0.0009199642983542427</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0001608697216262418</v>
+        <v>4.977344586434839e-06</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0003102007302931217</v>
+        <v>4.843130763222172e-05</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0002355352259596818</v>
+        <v>2.670432610932828e-05</v>
       </c>
       <c r="L13" t="n">
-        <v>0.000941396345171738</v>
+        <v>0.0002016955356125067</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0108949346990557</v>
+        <v>0.002927620095112464</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000339097115052</v>
+        <v>1.000024485234674</v>
       </c>
       <c r="O13" t="n">
-        <v>0.01135875462481846</v>
+        <v>0.003052254943570465</v>
       </c>
       <c r="P13" t="n">
-        <v>84.07782921706089</v>
+        <v>89.33426176095277</v>
       </c>
       <c r="Q13" t="n">
-        <v>124.3007314377115</v>
+        <v>129.5571639816034</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_14_4_15</t>
+          <t>model_14_4_12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9998799085592964</v>
+        <v>0.9999906946475436</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9990091964107014</v>
+        <v>0.9990131867868003</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9949716779191368</v>
+        <v>0.9999926700111981</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9996989591411314</v>
+        <v>0.9999500335598986</v>
       </c>
       <c r="F14" t="n">
-        <v>0.999577668557091</v>
+        <v>0.9999688800597351</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0001121000884917442</v>
+        <v>8.686138060273859e-06</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0009248716593591343</v>
+        <v>0.000921146818428099</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0001683111276568198</v>
+        <v>5.094630247185001e-06</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0003119581893901763</v>
+        <v>4.906482331228703e-05</v>
       </c>
       <c r="K14" t="n">
-        <v>0.000240134658523498</v>
+        <v>2.707972677973602e-05</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0009196583435562866</v>
+        <v>0.0002019718759618917</v>
       </c>
       <c r="M14" t="n">
-        <v>0.01058773292502905</v>
+        <v>0.00294722548514257</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000320243841876</v>
+        <v>1.000024814273217</v>
       </c>
       <c r="O14" t="n">
-        <v>0.01103847463527615</v>
+        <v>0.003072694975642905</v>
       </c>
       <c r="P14" t="n">
-        <v>84.19223687697287</v>
+        <v>89.30756425880698</v>
       </c>
       <c r="Q14" t="n">
-        <v>124.4151390976235</v>
+        <v>129.5304664794576</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_14_4_16</t>
+          <t>model_14_4_13</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9998855646941268</v>
+        <v>0.9999905808599646</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9989984874654765</v>
+        <v>0.9990120405901862</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9947734798014614</v>
+        <v>0.9999925151555984</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9996974520232429</v>
+        <v>0.9999494381833618</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9995704613049509</v>
+        <v>0.9999684822858722</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0001068203349032355</v>
+        <v>8.792353770614049e-06</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0009348679896582531</v>
+        <v>0.0009222167426551164</v>
       </c>
       <c r="I15" t="n">
-        <v>0.00017494533846292</v>
+        <v>5.202260973997238e-06</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0003135199633283394</v>
+        <v>4.964945660868677e-05</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0002442326508956297</v>
+        <v>2.7425858791342e-05</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0008989958191696732</v>
+        <v>0.0002022398013978389</v>
       </c>
       <c r="M15" t="n">
-        <v>0.010335392343943</v>
+        <v>0.002965190343066369</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000305160815662</v>
+        <v>1.000025117706761</v>
       </c>
       <c r="O15" t="n">
-        <v>0.01077539139323625</v>
+        <v>0.003091424634760902</v>
       </c>
       <c r="P15" t="n">
-        <v>84.2887244956932</v>
+        <v>89.28325620777305</v>
       </c>
       <c r="Q15" t="n">
-        <v>124.5116267163438</v>
+        <v>129.5061584284237</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_14_4_17</t>
+          <t>model_14_4_14</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9998900455114155</v>
+        <v>0.9999904767043706</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9989882877891988</v>
+        <v>0.9990110070188712</v>
       </c>
       <c r="D16" t="n">
-        <v>0.994594265857069</v>
+        <v>0.9999923748297267</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9996960699537523</v>
+        <v>0.9999489007490157</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9995639267954586</v>
+        <v>0.9999681230074582</v>
       </c>
       <c r="G16" t="n">
-        <v>0.000102637688649404</v>
+        <v>8.889578445653981e-06</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0009443889397494454</v>
+        <v>0.000923181536109125</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0001809440992000838</v>
+        <v>5.29979296886978e-06</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0003149521539536204</v>
+        <v>5.017719324918885e-05</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0002479481265768521</v>
+        <v>2.773849310902931e-05</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0008797040159627224</v>
+        <v>0.0002024742256121288</v>
       </c>
       <c r="M16" t="n">
-        <v>0.01013102604129532</v>
+        <v>0.002981539609942149</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000293211969559</v>
+        <v>1.000025395455012</v>
       </c>
       <c r="O16" t="n">
-        <v>0.0105623247939883</v>
+        <v>0.003108469923775232</v>
       </c>
       <c r="P16" t="n">
-        <v>84.3686107138294</v>
+        <v>89.26126185699867</v>
       </c>
       <c r="Q16" t="n">
-        <v>124.59151293448</v>
+        <v>129.4841640776493</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_14_4_2</t>
+          <t>model_14_4_15</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9994071422470762</v>
+        <v>0.9999903805601539</v>
       </c>
       <c r="C17" t="n">
-        <v>0.998988117431188</v>
+        <v>0.9990100832851747</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9963138066536087</v>
+        <v>0.9999922471783805</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9997052266573138</v>
+        <v>0.9999484048546083</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9996228848958729</v>
+        <v>0.9999677922289378</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0005534066889067418</v>
+        <v>8.979324851778969e-06</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0009445479614746307</v>
+        <v>0.0009240438009676405</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0001233865589583877</v>
+        <v>5.388515670469118e-06</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0003054633799893241</v>
+        <v>5.06641395159974e-05</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0002144249694738559</v>
+        <v>2.802632759323326e-05</v>
       </c>
       <c r="L17" t="n">
-        <v>0.001442647277341329</v>
+        <v>0.0002026731255495884</v>
       </c>
       <c r="M17" t="n">
-        <v>0.02352459752911283</v>
+        <v>0.002996552160697185</v>
       </c>
       <c r="N17" t="n">
-        <v>1.001580954007797</v>
+        <v>1.00002565183959</v>
       </c>
       <c r="O17" t="n">
-        <v>0.02452608834855736</v>
+        <v>0.003124121589896175</v>
       </c>
       <c r="P17" t="n">
-        <v>80.99883480751015</v>
+        <v>89.24117172404027</v>
       </c>
       <c r="Q17" t="n">
-        <v>121.2217370281608</v>
+        <v>129.4640739446909</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_14_4_18</t>
+          <t>model_14_4_16</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9998935793102408</v>
+        <v>0.9999902939625566</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9989786324190743</v>
+        <v>0.9990092453619632</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9944316795489737</v>
+        <v>0.9999921293840613</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9996948473881555</v>
+        <v>0.9999479599356256</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9995580270625759</v>
+        <v>0.9999674941488768</v>
       </c>
       <c r="G18" t="n">
-        <v>9.9339042561845e-05</v>
+        <v>9.060159907670751e-06</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0009534018039389059</v>
+        <v>0.0009248259655049414</v>
       </c>
       <c r="I18" t="n">
-        <v>0.000186386289341649</v>
+        <v>5.47038735098724e-06</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0003162190562319727</v>
+        <v>5.110103018167791e-05</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0002513026727868108</v>
+        <v>2.828570876633258e-05</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0008618331829286413</v>
+        <v>0.0002028665137080871</v>
       </c>
       <c r="M18" t="n">
-        <v>0.009966897338783269</v>
+        <v>0.003010009951423874</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000283788506025</v>
+        <v>1.000025882766516</v>
       </c>
       <c r="O18" t="n">
-        <v>0.01039120879281706</v>
+        <v>0.003138152306635565</v>
       </c>
       <c r="P18" t="n">
-        <v>84.43394377264764</v>
+        <v>89.22324757642372</v>
       </c>
       <c r="Q18" t="n">
-        <v>124.6568459932982</v>
+        <v>129.4461497970744</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_14_4_19</t>
+          <t>model_14_4_17</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9998963631535103</v>
+        <v>0.9999902141126426</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9989695644601907</v>
+        <v>0.9990084942543569</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9942843358792761</v>
+        <v>0.9999920240341332</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9996937815233664</v>
+        <v>0.9999475500520031</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9995527187851031</v>
+        <v>0.9999672208067214</v>
       </c>
       <c r="G19" t="n">
-        <v>9.674044706637193e-05</v>
+        <v>9.134696297330514e-06</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0009618663455193612</v>
+        <v>0.0009255270914856565</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0001913182683996882</v>
+        <v>5.54360969072833e-06</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0003173235749042555</v>
+        <v>5.150351768082863e-05</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0002543209216519718</v>
+        <v>2.852356368577848e-05</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0008452084689560262</v>
+        <v>0.0002030377154169433</v>
       </c>
       <c r="M19" t="n">
-        <v>0.009835672171558583</v>
+        <v>0.003022366009822522</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000276364923973</v>
+        <v>1.00002609569962</v>
       </c>
       <c r="O19" t="n">
-        <v>0.01025439709855007</v>
+        <v>0.003151034388020811</v>
       </c>
       <c r="P19" t="n">
-        <v>84.48695793852281</v>
+        <v>89.20686122947453</v>
       </c>
       <c r="Q19" t="n">
-        <v>124.7098601591734</v>
+        <v>129.4297634501252</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_14_4_20</t>
+          <t>model_14_4_18</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9998985023550886</v>
+        <v>0.9999901408373333</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9989610193368932</v>
+        <v>0.9990078168919202</v>
       </c>
       <c r="D20" t="n">
-        <v>0.994148454066799</v>
+        <v>0.9999919282486947</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9996927724847542</v>
+        <v>0.999947173616522</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9995477996660408</v>
+        <v>0.9999669701567729</v>
       </c>
       <c r="G20" t="n">
-        <v>9.474359629312903e-05</v>
+        <v>9.203095582149886e-06</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0009698428430300188</v>
+        <v>0.0009261593795875731</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0001958665890359348</v>
+        <v>5.610184334407064e-06</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0003183692065824886</v>
+        <v>5.187316059178165e-05</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0002571178978092117</v>
+        <v>2.874167246309435e-05</v>
       </c>
       <c r="L20" t="n">
-        <v>0.000830128135714068</v>
+        <v>0.0002031845487592333</v>
       </c>
       <c r="M20" t="n">
-        <v>0.009733632225080679</v>
+        <v>0.003033660426308437</v>
       </c>
       <c r="N20" t="n">
-        <v>1.00027066038643</v>
+        <v>1.000026291100444</v>
       </c>
       <c r="O20" t="n">
-        <v>0.01014801310029879</v>
+        <v>0.003162809631199197</v>
       </c>
       <c r="P20" t="n">
-        <v>84.52867260316503</v>
+        <v>89.1919413083682</v>
       </c>
       <c r="Q20" t="n">
-        <v>124.7515748238157</v>
+        <v>129.4148435290188</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_14_4_21</t>
+          <t>model_14_4_19</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999001531779701</v>
+        <v>0.9999900749370174</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9989530598541325</v>
+        <v>0.9990072045922292</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9940240967440989</v>
+        <v>0.9999918414807228</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9996918961095044</v>
+        <v>0.9999468382250106</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9995433406559041</v>
+        <v>0.9999667462663633</v>
       </c>
       <c r="G21" t="n">
-        <v>9.320262559597229e-05</v>
+        <v>9.264610634314192e-06</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0009772726708062039</v>
+        <v>0.0009267309344721957</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0002000291547744522</v>
+        <v>5.670491484362514e-06</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0003192773638247141</v>
+        <v>5.220250014874832e-05</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0002596532592995832</v>
+        <v>2.893649581655542e-05</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0008162314432569889</v>
+        <v>0.0002033484568918026</v>
       </c>
       <c r="M21" t="n">
-        <v>0.009654150692628134</v>
+        <v>0.003043782290886487</v>
       </c>
       <c r="N21" t="n">
-        <v>1.00026625819208</v>
+        <v>1.00002646683462</v>
       </c>
       <c r="O21" t="n">
-        <v>0.01006514787446029</v>
+        <v>0.003173362404507483</v>
       </c>
       <c r="P21" t="n">
-        <v>84.56146933007787</v>
+        <v>89.17861744909668</v>
       </c>
       <c r="Q21" t="n">
-        <v>124.7843715507285</v>
+        <v>129.4015196697473</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_14_4_22</t>
+          <t>model_14_4_20</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9999014069350417</v>
+        <v>0.9999900145530457</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9989456634594568</v>
+        <v>0.999006656628598</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9939107965579882</v>
+        <v>0.9999917634267116</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9996910929508263</v>
+        <v>0.999946527803538</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9995392738271986</v>
+        <v>0.9999665399448847</v>
       </c>
       <c r="G22" t="n">
-        <v>9.203229840315511e-05</v>
+        <v>9.320976421368087e-06</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0009841768805717026</v>
+        <v>0.0009272424344691021</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0002038216091521437</v>
+        <v>5.724742089310974e-06</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0003201096492757306</v>
+        <v>5.25073202374914e-05</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0002619656292139371</v>
+        <v>2.911603116340119e-05</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0008035822962498756</v>
+        <v>0.0002034648029785367</v>
       </c>
       <c r="M22" t="n">
-        <v>0.009593346569532193</v>
+        <v>0.003053027419033129</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000262914839889</v>
+        <v>1.000026627858545</v>
       </c>
       <c r="O22" t="n">
-        <v>0.01000175519396227</v>
+        <v>0.00318300111689938</v>
       </c>
       <c r="P22" t="n">
-        <v>84.58674194585247</v>
+        <v>89.16648633702633</v>
       </c>
       <c r="Q22" t="n">
-        <v>124.8096441665031</v>
+        <v>129.3893885576769</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_14_4_23</t>
+          <t>model_14_4_21</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9999023473398</v>
+        <v>0.9999899597709174</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9989388197658898</v>
+        <v>0.9990061624812748</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9938075598346283</v>
+        <v>0.999991692524267</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9996903789960091</v>
+        <v>0.9999462467110749</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9995355845000039</v>
+        <v>0.9999663530278291</v>
       </c>
       <c r="G23" t="n">
-        <v>9.115447184030694e-05</v>
+        <v>9.372113133509271e-06</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0009905651681130516</v>
+        <v>0.0009277036993047046</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0002072772130384636</v>
+        <v>5.774022074362552e-06</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0003208494958630848</v>
+        <v>5.278334054241793e-05</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0002640633544507742</v>
+        <v>2.927868130839024e-05</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0007920419917350882</v>
+        <v>0.0002035756156431873</v>
       </c>
       <c r="M23" t="n">
-        <v>0.009547485105529463</v>
+        <v>0.003061390718857897</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000260407093867</v>
+        <v>1.00002677394422</v>
       </c>
       <c r="O23" t="n">
-        <v>0.009953941312490623</v>
+        <v>0.003191720459712106</v>
       </c>
       <c r="P23" t="n">
-        <v>84.60590999561852</v>
+        <v>89.1555439319088</v>
       </c>
       <c r="Q23" t="n">
-        <v>124.8288122162691</v>
+        <v>129.3784461525594</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_14_4_24</t>
+          <t>model_14_4_22</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9999030438635822</v>
+        <v>0.9999899101872403</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9989325155063081</v>
+        <v>0.9990057163670532</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9937142975397347</v>
+        <v>0.9999916280795702</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9996897257939624</v>
+        <v>0.9999459951532911</v>
       </c>
       <c r="F24" t="n">
-        <v>0.999532244127456</v>
+        <v>0.9999661853541519</v>
       </c>
       <c r="G24" t="n">
-        <v>9.050429746347949e-05</v>
+        <v>9.418397319672423e-06</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0009964499177075657</v>
+        <v>0.0009281201273485125</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0002103989466444198</v>
+        <v>5.818813670978486e-06</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0003215263864637146</v>
+        <v>5.303035910514373e-05</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0002659626665540672</v>
+        <v>2.942458638806111e-05</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0007815421119634858</v>
+        <v>0.0002036798522487936</v>
       </c>
       <c r="M24" t="n">
-        <v>0.009513374662204758</v>
+        <v>0.003068940748804451</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000258549697114</v>
+        <v>1.000026906167359</v>
       </c>
       <c r="O24" t="n">
-        <v>0.009918378716975233</v>
+        <v>0.003199591910064201</v>
       </c>
       <c r="P24" t="n">
-        <v>84.620226445203</v>
+        <v>89.14569123953328</v>
       </c>
       <c r="Q24" t="n">
-        <v>124.8431286658536</v>
+        <v>129.3685934601839</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_14_4_1</t>
+          <t>model_14_4_23</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9992782647971937</v>
+        <v>0.9999898650616317</v>
       </c>
       <c r="C25" t="n">
-        <v>0.998913843269204</v>
+        <v>0.9990053185495101</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9950289043116567</v>
+        <v>0.9999915686592202</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9996898367064783</v>
+        <v>0.9999457655102721</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9995710401372815</v>
+        <v>0.9999660320520126</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0006737081313057218</v>
+        <v>9.460520094446125e-06</v>
       </c>
       <c r="H25" t="n">
-        <v>0.001013879631427838</v>
+        <v>0.0009284914725627998</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0001663956102134527</v>
+        <v>5.860113149138862e-06</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0003214114516745893</v>
+        <v>5.325585834281279e-05</v>
       </c>
       <c r="K25" t="n">
-        <v>0.000243903530944021</v>
+        <v>2.955798574597583e-05</v>
       </c>
       <c r="L25" t="n">
-        <v>0.001505526938587594</v>
+        <v>0.0002037718671761436</v>
       </c>
       <c r="M25" t="n">
-        <v>0.02595588818179262</v>
+        <v>0.003075795847328968</v>
       </c>
       <c r="N25" t="n">
-        <v>1.001924627207483</v>
+        <v>1.000027026502315</v>
       </c>
       <c r="O25" t="n">
-        <v>0.0270608840777872</v>
+        <v>0.003206738844324918</v>
       </c>
       <c r="P25" t="n">
-        <v>80.6054271608929</v>
+        <v>89.13676639628096</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.8283293815435</v>
+        <v>129.3596686169316</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_14_4_0</t>
+          <t>model_14_4_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9991147233677933</v>
+        <v>0.9999898247853705</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9988069884065448</v>
+        <v>0.9990049552719084</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9930822739443369</v>
+        <v>0.9999915165353336</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9996614586868752</v>
+        <v>0.9999455571872928</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9994878822393609</v>
+        <v>0.9999658936932608</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0008263668770119839</v>
+        <v>9.498116216378658e-06</v>
       </c>
       <c r="H26" t="n">
-        <v>0.001113623955333769</v>
+        <v>0.0009288305762580292</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0002315544339693017</v>
+        <v>5.896341298570479e-06</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0003508186080557995</v>
+        <v>5.346042224904336e-05</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0002911865210125506</v>
+        <v>2.967838177380692e-05</v>
       </c>
       <c r="L26" t="n">
-        <v>0.00157100656059515</v>
+        <v>0.0002038554396830307</v>
       </c>
       <c r="M26" t="n">
-        <v>0.02874659765975765</v>
+        <v>0.003081901396277736</v>
       </c>
       <c r="N26" t="n">
-        <v>1.002360737685885</v>
+        <v>1.000027133905679</v>
       </c>
       <c r="O26" t="n">
-        <v>0.02997039983579421</v>
+        <v>0.003213104319132663</v>
       </c>
       <c r="P26" t="n">
-        <v>80.19694344404431</v>
+        <v>89.12883414406642</v>
       </c>
       <c r="Q26" t="n">
-        <v>120.4198456646949</v>
+        <v>129.3517363647171</v>
       </c>
     </row>
   </sheetData>
